--- a/documentation/COST/cost.xlsx
+++ b/documentation/COST/cost.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dipterv2024\Diplomamunka_2024\documentation\COST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C5F1E9-C19F-4A75-9EB2-B43B590A77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164B4BF-A365-445F-AB7C-8F2D35117DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51390" yWindow="3510" windowWidth="16410" windowHeight="18690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="3975" windowWidth="29850" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Airsoftgun.hu</t>
   </si>
@@ -58,6 +69,33 @@
   </si>
   <si>
     <t>2x szorító</t>
+  </si>
+  <si>
+    <t>2m hangszóró kábel</t>
+  </si>
+  <si>
+    <t>2x loctite ragasztó</t>
+  </si>
+  <si>
+    <t>1 kg filament</t>
+  </si>
+  <si>
+    <t>3dJake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wago </t>
+  </si>
+  <si>
+    <t>raspberry</t>
+  </si>
+  <si>
+    <t>raspberry camera</t>
+  </si>
+  <si>
+    <t>Hestore rendelés</t>
+  </si>
+  <si>
+    <t>Egyetem</t>
   </si>
 </sst>
 </file>
@@ -376,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,9 +432,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>45355</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -408,9 +444,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>45545</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -430,23 +464,19 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>45550</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2203</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>45550</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -458,14 +488,83 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>45550</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
         <v>2090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>SUM(D1:D13)</f>
+        <v>153282</v>
       </c>
     </row>
   </sheetData>
